--- a/src/test/resources/Spreadsheet2007.xlsx
+++ b/src/test/resources/Spreadsheet2007.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="18000" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -448,28 +446,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>